--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.29437</v>
+        <v>27.852944</v>
       </c>
       <c r="H2">
-        <v>93.88310999999999</v>
+        <v>83.558832</v>
       </c>
       <c r="I2">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="J2">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>420.63604535553</v>
+        <v>245.6809962190827</v>
       </c>
       <c r="R2">
-        <v>3785.72440819977</v>
+        <v>2211.128965971744</v>
       </c>
       <c r="S2">
-        <v>0.02143166759634535</v>
+        <v>0.01641770180846443</v>
       </c>
       <c r="T2">
-        <v>0.02143166759634535</v>
+        <v>0.01641770180846443</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.29437</v>
+        <v>27.852944</v>
       </c>
       <c r="H3">
-        <v>93.88310999999999</v>
+        <v>83.558832</v>
       </c>
       <c r="I3">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="J3">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
-        <v>1712.16301955795</v>
+        <v>1523.87732050904</v>
       </c>
       <c r="R3">
-        <v>15409.46717602155</v>
+        <v>13714.89588458136</v>
       </c>
       <c r="S3">
-        <v>0.08723576857258152</v>
+        <v>0.101833531391615</v>
       </c>
       <c r="T3">
-        <v>0.0872357685725815</v>
+        <v>0.101833531391615</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.29437</v>
+        <v>27.852944</v>
       </c>
       <c r="H4">
-        <v>93.88310999999999</v>
+        <v>83.558832</v>
       </c>
       <c r="I4">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="J4">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>562.2202142839732</v>
+        <v>610.2068464661867</v>
       </c>
       <c r="R4">
-        <v>5059.981928555759</v>
+        <v>5491.86161819568</v>
       </c>
       <c r="S4">
-        <v>0.02864546888342829</v>
+        <v>0.04077724447938864</v>
       </c>
       <c r="T4">
-        <v>0.02864546888342829</v>
+        <v>0.04077724447938864</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.29437</v>
+        <v>27.852944</v>
       </c>
       <c r="H5">
-        <v>93.88310999999999</v>
+        <v>83.558832</v>
       </c>
       <c r="I5">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="J5">
-        <v>0.2388439922596656</v>
+        <v>0.2559209115167818</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>1992.7350408707</v>
+        <v>1449.936778542896</v>
       </c>
       <c r="R5">
-        <v>17934.6153678363</v>
+        <v>13049.43100688606</v>
       </c>
       <c r="S5">
-        <v>0.1015310872073104</v>
+        <v>0.0968924338373137</v>
       </c>
       <c r="T5">
-        <v>0.1015310872073104</v>
+        <v>0.09689243383731372</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>101.609188</v>
       </c>
       <c r="I6">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="J6">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>455.252142926524</v>
+        <v>298.7529377247885</v>
       </c>
       <c r="R6">
-        <v>4097.269286338716</v>
+        <v>2688.776439523096</v>
       </c>
       <c r="S6">
-        <v>0.02319537925352667</v>
+        <v>0.01996424925595181</v>
       </c>
       <c r="T6">
-        <v>0.02319537925352667</v>
+        <v>0.01996424925595181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>101.609188</v>
       </c>
       <c r="I7">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="J7">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
         <v>1853.064881861193</v>
@@ -883,10 +883,10 @@
         <v>16677.58393675074</v>
       </c>
       <c r="S7">
-        <v>0.09441480591360818</v>
+        <v>0.1238315829483412</v>
       </c>
       <c r="T7">
-        <v>0.09441480591360817</v>
+        <v>0.1238315829483412</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>101.609188</v>
       </c>
       <c r="I8">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="J8">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>608.4879319675341</v>
+        <v>742.0235622904578</v>
       </c>
       <c r="R8">
-        <v>5476.391387707807</v>
+        <v>6678.212060614121</v>
       </c>
       <c r="S8">
-        <v>0.03100283781741375</v>
+        <v>0.04958593366202346</v>
       </c>
       <c r="T8">
-        <v>0.03100283781741375</v>
+        <v>0.04958593366202346</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>101.609188</v>
       </c>
       <c r="I9">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="J9">
-        <v>0.2584995758255442</v>
+        <v>0.3112048767201538</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>2156.726480428893</v>
+        <v>1763.151724273497</v>
       </c>
       <c r="R9">
-        <v>19410.53832386004</v>
+        <v>15868.36551846147</v>
       </c>
       <c r="S9">
-        <v>0.1098865528409956</v>
+        <v>0.1178231108538373</v>
       </c>
       <c r="T9">
-        <v>0.1098865528409956</v>
+        <v>0.1178231108538374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.18980966666666</v>
+        <v>30.14135433333333</v>
       </c>
       <c r="H10">
-        <v>165.569429</v>
+        <v>90.42406299999999</v>
       </c>
       <c r="I10">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="J10">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>741.8210777884669</v>
+        <v>265.8662567233717</v>
       </c>
       <c r="R10">
-        <v>6676.389700096202</v>
+        <v>2392.796310510346</v>
       </c>
       <c r="S10">
-        <v>0.03779624435582397</v>
+        <v>0.01776658753013447</v>
       </c>
       <c r="T10">
-        <v>0.03779624435582397</v>
+        <v>0.01776658753013447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.18980966666666</v>
+        <v>30.14135433333333</v>
       </c>
       <c r="H11">
-        <v>165.569429</v>
+        <v>90.42406299999999</v>
       </c>
       <c r="I11">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="J11">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>3019.519203221171</v>
+        <v>1649.079762555568</v>
       </c>
       <c r="R11">
-        <v>27175.67282899054</v>
+        <v>14841.71786300011</v>
       </c>
       <c r="S11">
-        <v>0.1538463775959112</v>
+        <v>0.1102002198650631</v>
       </c>
       <c r="T11">
-        <v>0.1538463775959112</v>
+        <v>0.1102002198650631</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.18980966666666</v>
+        <v>30.14135433333333</v>
       </c>
       <c r="H12">
-        <v>165.569429</v>
+        <v>90.42406299999999</v>
       </c>
       <c r="I12">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="J12">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>991.5146595724735</v>
+        <v>660.341713822541</v>
       </c>
       <c r="R12">
-        <v>8923.631936152262</v>
+        <v>5943.075424402869</v>
       </c>
       <c r="S12">
-        <v>0.05051828733055913</v>
+        <v>0.04412752111913963</v>
       </c>
       <c r="T12">
-        <v>0.05051828733055914</v>
+        <v>0.04412752111913962</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.18980966666666</v>
+        <v>30.14135433333333</v>
       </c>
       <c r="H13">
-        <v>165.569429</v>
+        <v>90.42406299999999</v>
       </c>
       <c r="I13">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="J13">
-        <v>0.4212180808508927</v>
+        <v>0.2769474880406526</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>3514.327581023397</v>
+        <v>1569.064232599372</v>
       </c>
       <c r="R13">
-        <v>31628.94822921057</v>
+        <v>14121.57809339435</v>
       </c>
       <c r="S13">
-        <v>0.1790571715685984</v>
+        <v>0.1048531595263154</v>
       </c>
       <c r="T13">
-        <v>0.1790571715685984</v>
+        <v>0.1048531595263154</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.670404</v>
+        <v>16.970158</v>
       </c>
       <c r="H14">
-        <v>32.011212</v>
+        <v>50.910474</v>
       </c>
       <c r="I14">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="J14">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N14">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q14">
-        <v>143.423770502676</v>
+        <v>149.6877789089453</v>
       </c>
       <c r="R14">
-        <v>1290.813934524084</v>
+        <v>1347.190010180508</v>
       </c>
       <c r="S14">
-        <v>0.007307530129116316</v>
+        <v>0.01000292800956793</v>
       </c>
       <c r="T14">
-        <v>0.007307530129116316</v>
+        <v>0.01000292800956793</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.670404</v>
+        <v>16.970158</v>
       </c>
       <c r="H15">
-        <v>32.011212</v>
+        <v>50.910474</v>
       </c>
       <c r="I15">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="J15">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q15">
-        <v>583.79418191014</v>
+        <v>928.46339337253</v>
       </c>
       <c r="R15">
-        <v>5254.147637191259</v>
+        <v>8356.17054035277</v>
       </c>
       <c r="S15">
-        <v>0.02974467592477331</v>
+        <v>0.0620448279152705</v>
       </c>
       <c r="T15">
-        <v>0.02974467592477331</v>
+        <v>0.0620448279152705</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.670404</v>
+        <v>16.970158</v>
       </c>
       <c r="H16">
-        <v>32.011212</v>
+        <v>50.910474</v>
       </c>
       <c r="I16">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="J16">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N16">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q16">
-        <v>191.6995556509546</v>
+        <v>371.7849932564734</v>
       </c>
       <c r="R16">
-        <v>1725.296000858592</v>
+        <v>3346.06493930826</v>
       </c>
       <c r="S16">
-        <v>0.00976721134682081</v>
+        <v>0.02484463694824695</v>
       </c>
       <c r="T16">
-        <v>0.009767211346820811</v>
+        <v>0.02484463694824694</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.670404</v>
+        <v>16.970158</v>
       </c>
       <c r="H17">
-        <v>32.011212</v>
+        <v>50.910474</v>
       </c>
       <c r="I17">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="J17">
-        <v>0.08143835106389759</v>
+        <v>0.1559267237224118</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N17">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q17">
-        <v>679.4604892524401</v>
+        <v>883.413122213722</v>
       </c>
       <c r="R17">
-        <v>6115.144403271961</v>
+        <v>7950.718099923497</v>
       </c>
       <c r="S17">
-        <v>0.03461893366318715</v>
+        <v>0.05903433084932638</v>
       </c>
       <c r="T17">
-        <v>0.03461893366318716</v>
+        <v>0.05903433084932638</v>
       </c>
     </row>
   </sheetData>
